--- a/Data/meter_id/Rangkuman_Konsumsi_Energi_Gedung.xlsx
+++ b/Data/meter_id/Rangkuman_Konsumsi_Energi_Gedung.xlsx
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88.56</v>
+        <v>88.45</v>
       </c>
       <c r="C2" t="n">
-        <v>56.64</v>
+        <v>56.62</v>
       </c>
       <c r="D2" t="n">
         <v>30.88</v>
@@ -479,7 +479,7 @@
         <v>335.42</v>
       </c>
       <c r="F2" t="n">
-        <v>755908.28</v>
+        <v>812456.78</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.24</v>
+        <v>56.75</v>
       </c>
       <c r="C3" t="n">
-        <v>25.3</v>
+        <v>25.96</v>
       </c>
       <c r="D3" t="n">
         <v>22.48</v>
       </c>
       <c r="E3" t="n">
-        <v>130.4</v>
+        <v>143.03</v>
       </c>
       <c r="F3" t="n">
-        <v>488598.15</v>
+        <v>521233.24</v>
       </c>
     </row>
     <row r="4">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.77</v>
+        <v>52.78</v>
       </c>
       <c r="C4" t="n">
-        <v>16.6</v>
+        <v>16.88</v>
       </c>
       <c r="D4" t="n">
         <v>19.26</v>
@@ -523,7 +523,7 @@
         <v>119.68</v>
       </c>
       <c r="F4" t="n">
-        <v>450405.28</v>
+        <v>484744.91</v>
       </c>
     </row>
     <row r="5">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.22</v>
+        <v>51.32</v>
       </c>
       <c r="C5" t="n">
-        <v>20.89</v>
+        <v>20.94</v>
       </c>
       <c r="D5" t="n">
         <v>16.4</v>
@@ -545,7 +545,7 @@
         <v>132.7</v>
       </c>
       <c r="F5" t="n">
-        <v>437171.71</v>
+        <v>471338.33</v>
       </c>
     </row>
     <row r="6">
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.11</v>
+        <v>43.5</v>
       </c>
       <c r="C6" t="n">
-        <v>19.96</v>
+        <v>20.06</v>
       </c>
       <c r="D6" t="n">
         <v>16.58</v>
@@ -567,7 +567,7 @@
         <v>121.15</v>
       </c>
       <c r="F6" t="n">
-        <v>367996.15</v>
+        <v>399536.54</v>
       </c>
     </row>
     <row r="7">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.57</v>
+        <v>41.7</v>
       </c>
       <c r="C7" t="n">
-        <v>30.19</v>
+        <v>30.48</v>
       </c>
       <c r="D7" t="n">
         <v>9.57</v>
@@ -589,51 +589,51 @@
         <v>142.39</v>
       </c>
       <c r="F7" t="n">
-        <v>354846.53</v>
+        <v>382969.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>CRCS</t>
+          <t>LABTEK V</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.71</v>
+        <v>40.5</v>
       </c>
       <c r="C8" t="n">
-        <v>21.19</v>
+        <v>24.39</v>
       </c>
       <c r="D8" t="n">
-        <v>16.63</v>
+        <v>16.69</v>
       </c>
       <c r="E8" t="n">
-        <v>115.47</v>
+        <v>161.89</v>
       </c>
       <c r="F8" t="n">
-        <v>347519.68</v>
+        <v>372013.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LABTEK V</t>
+          <t>CRCS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.69</v>
+        <v>40.45</v>
       </c>
       <c r="C9" t="n">
-        <v>24.26</v>
+        <v>21.14</v>
       </c>
       <c r="D9" t="n">
-        <v>16.69</v>
+        <v>16.63</v>
       </c>
       <c r="E9" t="n">
-        <v>161.89</v>
+        <v>115.47</v>
       </c>
       <c r="F9" t="n">
-        <v>338789.9</v>
+        <v>371497.98</v>
       </c>
     </row>
     <row r="10">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39.63</v>
+        <v>39.74</v>
       </c>
       <c r="C10" t="n">
-        <v>26.98</v>
+        <v>27.04</v>
       </c>
       <c r="D10" t="n">
         <v>12.35</v>
@@ -655,7 +655,7 @@
         <v>137.33</v>
       </c>
       <c r="F10" t="n">
-        <v>338296.96</v>
+        <v>365053.95</v>
       </c>
     </row>
     <row r="11">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.52</v>
+        <v>39.58</v>
       </c>
       <c r="C11" t="n">
-        <v>21.37</v>
+        <v>21.26</v>
       </c>
       <c r="D11" t="n">
         <v>12.27</v>
@@ -677,7 +677,7 @@
         <v>124.05</v>
       </c>
       <c r="F11" t="n">
-        <v>337359.81</v>
+        <v>363531.15</v>
       </c>
     </row>
     <row r="12">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31.9</v>
+        <v>31.69</v>
       </c>
       <c r="C12" t="n">
-        <v>5.66</v>
+        <v>5.6</v>
       </c>
       <c r="D12" t="n">
         <v>16.97</v>
@@ -699,7 +699,7 @@
         <v>53.05</v>
       </c>
       <c r="F12" t="n">
-        <v>272268.45</v>
+        <v>291110.8</v>
       </c>
     </row>
     <row r="13">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.18</v>
+        <v>26.96</v>
       </c>
       <c r="C13" t="n">
-        <v>10.38</v>
+        <v>10.35</v>
       </c>
       <c r="D13" t="n">
         <v>11.32</v>
@@ -721,7 +721,7 @@
         <v>56.99</v>
       </c>
       <c r="F13" t="n">
-        <v>232034.14</v>
+        <v>247636.22</v>
       </c>
     </row>
     <row r="14">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.36</v>
+        <v>25.22</v>
       </c>
       <c r="C14" t="n">
-        <v>23.6</v>
+        <v>23.76</v>
       </c>
       <c r="D14" t="n">
         <v>1.26</v>
@@ -743,7 +743,7 @@
         <v>135.2</v>
       </c>
       <c r="F14" t="n">
-        <v>216499.51</v>
+        <v>231678.62</v>
       </c>
     </row>
     <row r="15">
@@ -753,10 +753,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.75</v>
+        <v>24.54</v>
       </c>
       <c r="C15" t="n">
-        <v>20.62</v>
+        <v>20.57</v>
       </c>
       <c r="D15" t="n">
         <v>4.12</v>
@@ -765,7 +765,7 @@
         <v>92.73999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>211227.49</v>
+        <v>225443.15</v>
       </c>
     </row>
     <row r="16">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.96</v>
+        <v>24.04</v>
       </c>
       <c r="C16" t="n">
-        <v>18.15</v>
+        <v>18.28</v>
       </c>
       <c r="D16" t="n">
         <v>5.91</v>
@@ -787,7 +787,7 @@
         <v>82.53</v>
       </c>
       <c r="F16" t="n">
-        <v>204508.65</v>
+        <v>220837.26</v>
       </c>
     </row>
     <row r="17">
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23.64</v>
+        <v>23.82</v>
       </c>
       <c r="C17" t="n">
-        <v>16.18</v>
+        <v>16.17</v>
       </c>
       <c r="D17" t="n">
         <v>6.72</v>
@@ -809,7 +809,7 @@
         <v>84.53</v>
       </c>
       <c r="F17" t="n">
-        <v>201756.07</v>
+        <v>218754.77</v>
       </c>
     </row>
     <row r="18">
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.52</v>
+        <v>22.59</v>
       </c>
       <c r="C18" t="n">
-        <v>8.19</v>
+        <v>8.26</v>
       </c>
       <c r="D18" t="n">
         <v>11.27</v>
@@ -831,7 +831,7 @@
         <v>58.09</v>
       </c>
       <c r="F18" t="n">
-        <v>192272.72</v>
+        <v>207496.37</v>
       </c>
     </row>
     <row r="19">
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.25</v>
+        <v>20.14</v>
       </c>
       <c r="C19" t="n">
-        <v>10.16</v>
+        <v>10.1</v>
       </c>
       <c r="D19" t="n">
         <v>5.68</v>
@@ -853,7 +853,7 @@
         <v>59.53</v>
       </c>
       <c r="F19" t="n">
-        <v>172893.43</v>
+        <v>184993.71</v>
       </c>
     </row>
     <row r="20">
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>18.97</v>
       </c>
       <c r="C20" t="n">
-        <v>6.98</v>
+        <v>6.96</v>
       </c>
       <c r="D20" t="n">
         <v>9.09</v>
@@ -875,7 +875,7 @@
         <v>44.09</v>
       </c>
       <c r="F20" t="n">
-        <v>162165.11</v>
+        <v>174205.18</v>
       </c>
     </row>
     <row r="21">
@@ -885,10 +885,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.96</v>
+        <v>15.92</v>
       </c>
       <c r="C21" t="n">
-        <v>5.57</v>
+        <v>5.6</v>
       </c>
       <c r="D21" t="n">
         <v>7.86</v>
@@ -897,7 +897,7 @@
         <v>41.76</v>
       </c>
       <c r="F21" t="n">
-        <v>136213.25</v>
+        <v>146198.95</v>
       </c>
     </row>
     <row r="22">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.98</v>
+        <v>14.92</v>
       </c>
       <c r="C22" t="n">
-        <v>10.18</v>
+        <v>10.16</v>
       </c>
       <c r="D22" t="n">
         <v>4.28</v>
@@ -919,7 +919,7 @@
         <v>55.55</v>
       </c>
       <c r="F22" t="n">
-        <v>127879.26</v>
+        <v>137055.26</v>
       </c>
     </row>
     <row r="23">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.74</v>
+        <v>14.02</v>
       </c>
       <c r="C23" t="n">
-        <v>7.82</v>
+        <v>7.92</v>
       </c>
       <c r="D23" t="n">
         <v>1.33</v>
@@ -941,7 +941,7 @@
         <v>45.25</v>
       </c>
       <c r="F23" t="n">
-        <v>117302.34</v>
+        <v>128804.9</v>
       </c>
     </row>
     <row r="24">
@@ -951,19 +951,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13.55</v>
+        <v>13.53</v>
       </c>
       <c r="C24" t="n">
         <v>8.65</v>
       </c>
       <c r="D24" t="n">
-        <v>4.46</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>50.16</v>
       </c>
       <c r="F24" t="n">
-        <v>115683.91</v>
+        <v>124239.18</v>
       </c>
     </row>
     <row r="25">
@@ -973,10 +973,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.42</v>
+        <v>13.28</v>
       </c>
       <c r="C25" t="n">
-        <v>7.87</v>
+        <v>7.86</v>
       </c>
       <c r="D25" t="n">
         <v>4.59</v>
@@ -985,7 +985,7 @@
         <v>45.72</v>
       </c>
       <c r="F25" t="n">
-        <v>114522.28</v>
+        <v>121999.36</v>
       </c>
     </row>
     <row r="26">
@@ -998,7 +998,7 @@
         <v>11.19</v>
       </c>
       <c r="C26" t="n">
-        <v>9.48</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D26" t="n">
         <v>2.9</v>
@@ -1007,7 +1007,7 @@
         <v>53.92</v>
       </c>
       <c r="F26" t="n">
-        <v>95486.03999999999</v>
+        <v>102824</v>
       </c>
     </row>
     <row r="27">
@@ -1017,19 +1017,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11.19</v>
+        <v>11.16</v>
       </c>
       <c r="C27" t="n">
-        <v>8.25</v>
+        <v>8.26</v>
       </c>
       <c r="D27" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>44.4</v>
       </c>
       <c r="F27" t="n">
-        <v>95475.33</v>
+        <v>102466.33</v>
       </c>
     </row>
     <row r="28">
@@ -1039,19 +1039,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.56</v>
+        <v>10.43</v>
       </c>
       <c r="C28" t="n">
-        <v>6.61</v>
+        <v>6.63</v>
       </c>
       <c r="D28" t="n">
-        <v>4.26</v>
+        <v>4.14</v>
       </c>
       <c r="E28" t="n">
         <v>42.84</v>
       </c>
       <c r="F28" t="n">
-        <v>90169.05</v>
+        <v>95814.97</v>
       </c>
     </row>
     <row r="29">
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.33</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>5.34</v>
+        <v>5.36</v>
       </c>
       <c r="D29" t="n">
         <v>3.97</v>
@@ -1073,7 +1073,7 @@
         <v>31.62</v>
       </c>
       <c r="F29" t="n">
-        <v>79606.39999999999</v>
+        <v>86144.74000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.41</v>
+        <v>6.44</v>
       </c>
       <c r="C30" t="n">
         <v>3.9</v>
@@ -1095,7 +1095,7 @@
         <v>25.17</v>
       </c>
       <c r="F30" t="n">
-        <v>54675.81</v>
+        <v>59168.19</v>
       </c>
     </row>
     <row r="31">
@@ -1105,19 +1105,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.01</v>
+        <v>5.04</v>
       </c>
       <c r="C31" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="D31" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>15.39</v>
       </c>
       <c r="F31" t="n">
-        <v>42769.98</v>
+        <v>46304.98</v>
       </c>
     </row>
     <row r="32">
@@ -1130,7 +1130,7 @@
         <v>3.54</v>
       </c>
       <c r="C32" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="D32" t="n">
         <v>0.99</v>
@@ -1139,7 +1139,7 @@
         <v>12.68</v>
       </c>
       <c r="F32" t="n">
-        <v>30195.34</v>
+        <v>32505.73</v>
       </c>
     </row>
     <row r="33">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="C33" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="D33" t="n">
         <v>0.91</v>
@@ -1161,7 +1161,7 @@
         <v>10.67</v>
       </c>
       <c r="F33" t="n">
-        <v>28679.31</v>
+        <v>31072.66</v>
       </c>
     </row>
     <row r="34">
@@ -1171,19 +1171,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="C34" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="D34" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>8.029999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>24497.75</v>
+        <v>26864.56</v>
       </c>
     </row>
     <row r="35">
@@ -1205,7 +1205,7 @@
         <v>9.09</v>
       </c>
       <c r="F35" t="n">
-        <v>24017.58</v>
+        <v>25786.07</v>
       </c>
     </row>
     <row r="36">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="C36" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="D36" t="n">
         <v>0.18</v>
@@ -1227,7 +1227,7 @@
         <v>16.26</v>
       </c>
       <c r="F36" t="n">
-        <v>18920.92</v>
+        <v>20206.3</v>
       </c>
     </row>
     <row r="37">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="C37" t="n">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="D37" t="n">
         <v>0.1</v>
@@ -1249,7 +1249,7 @@
         <v>11.37</v>
       </c>
       <c r="F37" t="n">
-        <v>17481.37</v>
+        <v>18594.77</v>
       </c>
     </row>
     <row r="38">
@@ -1262,7 +1262,7 @@
         <v>1.92</v>
       </c>
       <c r="C38" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="D38" t="n">
         <v>0.5600000000000001</v>
@@ -1271,7 +1271,7 @@
         <v>20.49</v>
       </c>
       <c r="F38" t="n">
-        <v>16426.58</v>
+        <v>17606.48</v>
       </c>
     </row>
     <row r="39">
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="C39" t="n">
         <v>1.12</v>
@@ -1290,10 +1290,10 @@
         <v>0.25</v>
       </c>
       <c r="E39" t="n">
-        <v>7.57</v>
+        <v>7.69</v>
       </c>
       <c r="F39" t="n">
-        <v>10797.61</v>
+        <v>11682.87</v>
       </c>
     </row>
     <row r="40">
@@ -1303,10 +1303,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="C40" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>5.21</v>
       </c>
       <c r="F40" t="n">
-        <v>1469.28</v>
+        <v>1511.42</v>
       </c>
     </row>
     <row r="41">
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C41" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>5.15</v>
       </c>
       <c r="F41" t="n">
-        <v>297.96</v>
+        <v>395.87</v>
       </c>
     </row>
   </sheetData>
